--- a/data/trans_dic/P04D$notiene-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1012593076423338</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.09730969381674931</v>
+        <v>0.09730969381674932</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.0370422429739102</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02571056091284504</v>
+        <v>0.02544534830694448</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07314118955190192</v>
+        <v>0.07357393817041653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0689938428200197</v>
+        <v>0.07048186487296179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01596914235005207</v>
+        <v>0.0185211717014579</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06909334769066011</v>
+        <v>0.06817559928137508</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09543289884970857</v>
+        <v>0.09678352726027425</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02788689087083396</v>
+        <v>0.02718283798160909</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0775939305329551</v>
+        <v>0.07735027110854086</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09085200445727382</v>
+        <v>0.09048457932110984</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07043553264069791</v>
+        <v>0.07135329017323799</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1394831035424929</v>
+        <v>0.1382954172699594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1291420259676082</v>
+        <v>0.1283787731639444</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06637710517160804</v>
+        <v>0.06846352739797736</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.131887227906203</v>
+        <v>0.1307874104467141</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1583216867279256</v>
+        <v>0.1555465048126639</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06147452442900928</v>
+        <v>0.05968389221109349</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1220377106189034</v>
+        <v>0.1225223541660472</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1306756979641377</v>
+        <v>0.1326915388277884</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.1005467366988343</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.1227149615733726</v>
+        <v>0.1227149615733727</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008905888578024521</v>
+        <v>0.008807790996696829</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08027925123987459</v>
+        <v>0.07892354162509133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0884147591378357</v>
+        <v>0.08578071053736198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02960773802418101</v>
+        <v>0.03028563080631688</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06533908751088162</v>
+        <v>0.0673673934882902</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1009542690333002</v>
+        <v>0.1050273019327642</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02151807514400658</v>
+        <v>0.02150791775516489</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07758566564869572</v>
+        <v>0.07899408409267131</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1039061830140512</v>
+        <v>0.1009812500098026</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0394931375796739</v>
+        <v>0.03996813345136884</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1453097439246605</v>
+        <v>0.1458017332239305</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1530659398684265</v>
+        <v>0.1468182103599296</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07943684413969009</v>
+        <v>0.07652658939868866</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1266026553527349</v>
+        <v>0.1262327822328416</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1626175536936638</v>
+        <v>0.1643234872559377</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04988495482723762</v>
+        <v>0.04979021968745523</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.12145368712759</v>
+        <v>0.1242951417095002</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1485724811758</v>
+        <v>0.1443677425063515</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.1355253325113283</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1151255497692617</v>
+        <v>0.1151255497692616</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02474021332862772</v>
+        <v>0.02461721250595719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1202085508043917</v>
+        <v>0.1173938228156142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07482946810685166</v>
+        <v>0.07810838947553753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03471419455914116</v>
+        <v>0.03451776031372414</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04868704890247438</v>
+        <v>0.04895999041989557</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1037790751178325</v>
+        <v>0.1018943369370272</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03202857747493598</v>
+        <v>0.03216928321226043</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.107677718767936</v>
+        <v>0.1099341936624645</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09204423649270523</v>
+        <v>0.09066885645337794</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05901041351245429</v>
+        <v>0.06088199785689825</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1872312272823743</v>
+        <v>0.1835190585216346</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1368751057692265</v>
+        <v>0.1393147118295676</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09389400487702143</v>
+        <v>0.09166405300879195</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.136992262667245</v>
+        <v>0.1355495478289329</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1976784475546133</v>
+        <v>0.1933039428756906</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05976819728113381</v>
+        <v>0.05954657357745671</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1654212611128054</v>
+        <v>0.1637112083587011</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1416441675546723</v>
+        <v>0.1424956666876333</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03473101850901728</v>
+        <v>0.03432770222770978</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.142865905101728</v>
+        <v>0.1415957089702674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1057323222713814</v>
+        <v>0.105320970422891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03144340326690962</v>
+        <v>0.03157446486870106</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1285729219358205</v>
+        <v>0.1286526148145223</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1137286279847542</v>
+        <v>0.1133343109563629</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03765914802953393</v>
+        <v>0.03742564064578397</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.141876476579467</v>
+        <v>0.1416389220414341</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1133960895673222</v>
+        <v>0.1158926555190978</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06131442542481217</v>
+        <v>0.06012991950712279</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1862075809696126</v>
+        <v>0.1853312214989431</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1505134946881479</v>
+        <v>0.1506759781759431</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06604166773452583</v>
+        <v>0.06444953508263331</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1771169663181884</v>
+        <v>0.1782484551298134</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.152474129960195</v>
+        <v>0.1543211816897131</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05757490211675594</v>
+        <v>0.05684432761583828</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1762173909500172</v>
+        <v>0.1764690808811573</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1443375682780774</v>
+        <v>0.1463433428186751</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03230198408515857</v>
+        <v>0.03139460465201895</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1788046025186524</v>
+        <v>0.1810149381046239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1400387552429025</v>
+        <v>0.1400806031779346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02752751376673885</v>
+        <v>0.02737962041206059</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1514001525020563</v>
+        <v>0.1505892051673564</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09941538923559121</v>
+        <v>0.09967831185862547</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03340005946216369</v>
+        <v>0.03254145990952965</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.168329428595156</v>
+        <v>0.1730633109382456</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.121025953423547</v>
+        <v>0.1226084925022736</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06990163109318623</v>
+        <v>0.07001728452458757</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2475920374955616</v>
+        <v>0.2457709605130113</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2090332282817572</v>
+        <v>0.2126663208485733</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05764449485124298</v>
+        <v>0.05610167414264591</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2052302384958042</v>
+        <v>0.2076379057618022</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1364307727074281</v>
+        <v>0.1373668429293716</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05658839472232079</v>
+        <v>0.05494949740216494</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2133533646319201</v>
+        <v>0.2155802960839129</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1557471060294843</v>
+        <v>0.1579605148469194</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02183103493800754</v>
+        <v>0.01854221410694291</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1227772425594055</v>
+        <v>0.1206045392187432</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05084779202624255</v>
+        <v>0.04794552605067635</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03417601033049583</v>
+        <v>0.03374259309721196</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.143110251284132</v>
+        <v>0.1421771936568336</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08770890702015732</v>
+        <v>0.0882844532051538</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0337799429518978</v>
+        <v>0.03389953752290426</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.143175088020821</v>
+        <v>0.14229055295445</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08598473837376006</v>
+        <v>0.08602200019929045</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07397686431920535</v>
+        <v>0.07505417419220285</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2111948772934965</v>
+        <v>0.2081845089407765</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1820428725544335</v>
+        <v>0.1829803826374313</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05909855905181734</v>
+        <v>0.05818111983974774</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1895889911510099</v>
+        <v>0.1880878512180498</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1280471593044505</v>
+        <v>0.1291000693879868</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0564285742506539</v>
+        <v>0.05770417526134632</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1838238539965865</v>
+        <v>0.1851377618628239</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1299209883328185</v>
+        <v>0.1321508011600964</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03464110860795239</v>
+        <v>0.03509179481564262</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1434037242027911</v>
+        <v>0.1441181226766264</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1104468475282234</v>
+        <v>0.111355077099166</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03863066560972814</v>
+        <v>0.03843611856291751</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1338247972231892</v>
+        <v>0.1339608784486901</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1126840838410629</v>
+        <v>0.1124234340243363</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03884392100543137</v>
+        <v>0.03858235930055899</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1422912623643159</v>
+        <v>0.1423643870582116</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1149031312426025</v>
+        <v>0.1147119976388268</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04920223331824938</v>
+        <v>0.04947544580408406</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1715699700811472</v>
+        <v>0.1699949995005115</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1351639067395708</v>
+        <v>0.1359850089351289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0525309228999358</v>
+        <v>0.05266862712649129</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1573748036385123</v>
+        <v>0.1589097448095732</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1320672704082685</v>
+        <v>0.1330010030239295</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04972828712713542</v>
+        <v>0.048837706331441</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1597847579575945</v>
+        <v>0.1599783280020343</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1310291271977726</v>
+        <v>0.1310288945053089</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11241</v>
+        <v>11125</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31384</v>
+        <v>31570</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37910</v>
+        <v>38727</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5022</v>
+        <v>5824</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23979</v>
+        <v>23661</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>46474</v>
+        <v>47132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20962</v>
+        <v>20432</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>60224</v>
+        <v>60035</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>94163</v>
+        <v>93782</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30795</v>
+        <v>31196</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>59851</v>
+        <v>59341</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>70959</v>
+        <v>70540</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20873</v>
+        <v>21529</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45772</v>
+        <v>45390</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>77099</v>
+        <v>75748</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46208</v>
+        <v>44862</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>94719</v>
+        <v>95095</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>135438</v>
+        <v>137527</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3708</v>
+        <v>3668</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30284</v>
+        <v>29772</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42723</v>
+        <v>41450</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10008</v>
+        <v>10237</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>24324</v>
+        <v>25079</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>42718</v>
+        <v>44442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16233</v>
+        <v>16226</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>58150</v>
+        <v>59206</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>94176</v>
+        <v>91525</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16445</v>
+        <v>16643</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>54815</v>
+        <v>55000</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>73963</v>
+        <v>70944</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26851</v>
+        <v>25867</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>47131</v>
+        <v>46993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>68810</v>
+        <v>69532</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37634</v>
+        <v>37562</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>91030</v>
+        <v>93159</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>134659</v>
+        <v>130848</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15572</v>
+        <v>15494</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>62739</v>
+        <v>61269</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35220</v>
+        <v>36763</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9030</v>
+        <v>8979</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8088</v>
+        <v>8133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19281</v>
+        <v>18931</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28491</v>
+        <v>28616</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>74086</v>
+        <v>75639</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>60423</v>
+        <v>59520</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37142</v>
+        <v>38320</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>97719</v>
+        <v>95781</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>64423</v>
+        <v>65571</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24425</v>
+        <v>23844</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22758</v>
+        <v>22518</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36726</v>
+        <v>35914</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53166</v>
+        <v>52969</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>113816</v>
+        <v>112639</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>92983</v>
+        <v>93542</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40188</v>
+        <v>39721</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>164244</v>
+        <v>162784</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>118993</v>
+        <v>118530</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24075</v>
+        <v>24175</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>106185</v>
+        <v>106251</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>97686</v>
+        <v>97347</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>72410</v>
+        <v>71961</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>280279</v>
+        <v>279810</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>225019</v>
+        <v>229973</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>70948</v>
+        <v>69577</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>214071</v>
+        <v>213064</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>169391</v>
+        <v>169574</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>50566</v>
+        <v>49347</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>146277</v>
+        <v>147211</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>130966</v>
+        <v>132553</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>110704</v>
+        <v>109299</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>348120</v>
+        <v>348617</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>286418</v>
+        <v>290398</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16431</v>
+        <v>15969</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>110985</v>
+        <v>112357</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>79385</v>
+        <v>79409</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>20932</v>
+        <v>20819</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>111770</v>
+        <v>111172</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>82394</v>
+        <v>82612</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>42387</v>
+        <v>41297</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>228751</v>
+        <v>235184</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>168912</v>
+        <v>171120</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35557</v>
+        <v>35616</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>153682</v>
+        <v>152552</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>118497</v>
+        <v>120557</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43833</v>
+        <v>42660</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>151510</v>
+        <v>153287</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>113071</v>
+        <v>113847</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>71814</v>
+        <v>69734</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>289937</v>
+        <v>292963</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>217371</v>
+        <v>220460</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5807</v>
+        <v>4933</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>35255</v>
+        <v>34631</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12063</v>
+        <v>11374</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>37842</v>
+        <v>37362</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>154849</v>
+        <v>153839</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>73890</v>
+        <v>74375</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>46389</v>
+        <v>46553</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>196031</v>
+        <v>194820</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>92836</v>
+        <v>92876</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19679</v>
+        <v>19966</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>60644</v>
+        <v>59779</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>43186</v>
+        <v>43408</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>65438</v>
+        <v>64422</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>205140</v>
+        <v>203516</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>107873</v>
+        <v>108760</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>77492</v>
+        <v>79244</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>251686</v>
+        <v>253485</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>140273</v>
+        <v>142680</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>118293</v>
+        <v>119832</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>485525</v>
+        <v>487944</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>379150</v>
+        <v>382268</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>136981</v>
+        <v>136291</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>472615</v>
+        <v>473096</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>408602</v>
+        <v>407656</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>270382</v>
+        <v>268562</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>984274</v>
+        <v>984780</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>811096</v>
+        <v>809747</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>168017</v>
+        <v>168949</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>580888</v>
+        <v>575556</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>464001</v>
+        <v>466819</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>186270</v>
+        <v>186759</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>555784</v>
+        <v>561205</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>478887</v>
+        <v>482272</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>346145</v>
+        <v>339946</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1105282</v>
+        <v>1106621</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>924929</v>
+        <v>924927</v>
       </c>
     </row>
     <row r="32">
